--- a/Tables/Table 2 - NetworkClusters.xlsx
+++ b/Tables/Table 2 - NetworkClusters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ZmPAN</t>
   </si>
@@ -102,6 +102,31 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 0.01)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gene co-expression network cluster assignments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Gene clusters were calculated by running the Markov Cluster (MCL) algorithm on the co-expression matrix. Cluster values designate network specific gene clusters and are not compared across networks.
+</t>
     </r>
   </si>
 </sst>
@@ -109,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +147,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -144,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -215,11 +248,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -234,6 +276,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,86 +561,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4">
         <v>76</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>18</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4">
         <v>160</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>150</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>